--- a/src/_static/xlsx/tab_errori_agenzia_entrate.xlsx
+++ b/src/_static/xlsx/tab_errori_agenzia_entrate.xlsx
@@ -4,73 +4,187 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="11565"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="21075" windowHeight="10035"/>
   </bookViews>
   <sheets>
-    <sheet name="listaCodiciErroreServiziAE" sheetId="1" r:id="rId1"/>
+    <sheet name="errori_ae_1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">errori_ae_1!$A$2:$C$44</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="80">
-  <si>
-    <t>EAA00</t>
-  </si>
-  <si>
-    <t>Codice fiscale attribuito</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
+  <si>
+    <t>EAM47</t>
+  </si>
+  <si>
+    <t>Soggetto individuato in AT con CF non utilizzabile</t>
+  </si>
+  <si>
+    <t>EAM91</t>
+  </si>
+  <si>
+    <t>Richiesta incongruente - soggetto NON marcato ANPR</t>
+  </si>
+  <si>
+    <t>EAM93</t>
+  </si>
+  <si>
+    <t>Variazione non consentita per superamento numero campi variati</t>
+  </si>
+  <si>
+    <t>EAM94</t>
+  </si>
+  <si>
+    <t>Richiesta incongruente - nessun campo variato</t>
+  </si>
+  <si>
+    <t>EAM95</t>
+  </si>
+  <si>
+    <t>Variazione non consentita, soggetto registrato in AT ANPR di altro comune</t>
+  </si>
+  <si>
+    <t>EAR13</t>
+  </si>
+  <si>
+    <t>Soggetto non rettificabile perchè in lavorazione per risoluzione omocodia</t>
+  </si>
+  <si>
+    <t>EAR97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soggetto non rettificabile </t>
+  </si>
+  <si>
+    <t>EAL12</t>
+  </si>
+  <si>
+    <t>Codice fiscale presente in AT ma non utilizzabile</t>
+  </si>
+  <si>
+    <t>EAM9C</t>
+  </si>
+  <si>
+    <t>TIPO VARIAZIONE RICHIESTA INCONGRUENTE CON SITUAZIONE PRESENTE IN AT - individuate due posizioni in AT non unificabili</t>
+  </si>
+  <si>
+    <t>EAL92</t>
+  </si>
+  <si>
+    <t>Richiesta incongruente - soggetto validato in Agenzia Entrate</t>
+  </si>
+  <si>
+    <t>EAI22</t>
+  </si>
+  <si>
+    <t>Codice fiscale presente in AT , il CF ATTRIBUITO IN AT non è congruente</t>
+  </si>
+  <si>
+    <t>EAR15</t>
+  </si>
+  <si>
+    <t>Soggetto non rettificabile perchè già in lavorazione</t>
+  </si>
+  <si>
+    <t>EAR21</t>
+  </si>
+  <si>
+    <t>Soggetto non rettificabile per errata indicazione del comune</t>
+  </si>
+  <si>
+    <t>EAR29</t>
+  </si>
+  <si>
+    <t>EAR80</t>
+  </si>
+  <si>
+    <t>EAR92</t>
+  </si>
+  <si>
+    <t>EAR93</t>
+  </si>
+  <si>
+    <t>Rettifica non consentita per superamento numero campi variati</t>
+  </si>
+  <si>
+    <t>EAR94</t>
+  </si>
+  <si>
+    <t>EAR95</t>
+  </si>
+  <si>
+    <t>CF già rettificato</t>
+  </si>
+  <si>
+    <t>EAV21</t>
+  </si>
+  <si>
+    <t>Dati anagrafici incongruenti con CF</t>
+  </si>
+  <si>
+    <t>EAV80</t>
+  </si>
+  <si>
+    <t>EAV30</t>
+  </si>
+  <si>
+    <t>CF presente ma dati anagrafici non congruenti</t>
+  </si>
+  <si>
+    <t>EAV40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codice fiscale individuato in AT come collegato, il CF fornito è congruente </t>
+  </si>
+  <si>
+    <t>EAV41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codice fiscale individuato in AT come collegato, il CF fornito NON è congruente </t>
+  </si>
+  <si>
+    <t>EAV44</t>
+  </si>
+  <si>
+    <t>EAV50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Più codici fiscali individuati in AT </t>
+  </si>
+  <si>
+    <t>EAV91</t>
+  </si>
+  <si>
+    <t>Soggetto non presente in Agenzia Entrate</t>
   </si>
   <si>
     <t>EAA10</t>
   </si>
   <si>
-    <t>Codice fiscale già presente in AT, con dati anagrafici uguali ed indirizzo simile</t>
+    <t>Codice fiscale @ già presente in AT, con dati anagrafici uguali ed indirizzo simile</t>
   </si>
   <si>
     <t>EAA30</t>
   </si>
   <si>
-    <t>Codice fiscale individuato in AT con dati anagrafici diversi o indirizzo diverso, forniti CF individuati</t>
+    <t>Codice fiscale individuato in AT con dati anagrafici diversi o indirizzo diverso</t>
   </si>
   <si>
     <t>EAA40</t>
   </si>
   <si>
-    <t>Codice fiscale individuato in AT come collegato</t>
+    <t xml:space="preserve">Codice fiscale individuato in AT come collegato. Utilizzare il CF @ </t>
   </si>
   <si>
     <t>EAA50</t>
   </si>
   <si>
-    <t>EAC00</t>
-  </si>
-  <si>
-    <t>Codice Fiscale annullato</t>
-  </si>
-  <si>
-    <t>EAC12</t>
-  </si>
-  <si>
-    <t>Soggetto non individuato in AT -  Codice fiscale NON annullato</t>
-  </si>
-  <si>
-    <t>EAC13</t>
-  </si>
-  <si>
-    <t>Soggetto individuato in AT - residente in altro comune -  Codice fiscale NON annullato</t>
-  </si>
-  <si>
-    <t>EAC14</t>
-  </si>
-  <si>
-    <t>Soggetto individuato in AT - residente nello stesso comune - Codice fiscale già presente in altre banche dati -  Codice fiscale NON annullato</t>
-  </si>
-  <si>
-    <t>EAC80</t>
-  </si>
-  <si>
-    <t>Soggetto individuato in AT : CF Falso o di soggetto adottato</t>
+    <t>Codice fiscale individuato in AT come base di omocodice</t>
   </si>
   <si>
     <t>EAI20</t>
@@ -79,10 +193,7 @@
     <t>Codice fiscale presente in AT</t>
   </si>
   <si>
-    <t>EAI23</t>
-  </si>
-  <si>
-    <t>Codice fiscale presente in AT , il CF ATTRIBUITO IN AT non è congruente</t>
+    <t>EAI80</t>
   </si>
   <si>
     <t>EAI40</t>
@@ -91,169 +202,109 @@
     <t>Codice fiscale presente in AT  come collegato</t>
   </si>
   <si>
-    <t>EAI44</t>
-  </si>
-  <si>
-    <t>EAI48</t>
-  </si>
-  <si>
-    <t>EAI49</t>
-  </si>
-  <si>
-    <t>EAI50</t>
-  </si>
-  <si>
-    <t>Codice fiscale presente in AT  come base di omocodice</t>
-  </si>
-  <si>
     <t>EAI59</t>
   </si>
   <si>
     <t xml:space="preserve">Codice fiscale presente in AT  come base di omocodice </t>
   </si>
   <si>
-    <t>EAI80</t>
-  </si>
-  <si>
-    <t>Codice fiscale presente in AT ma non utilizzabile</t>
-  </si>
-  <si>
-    <t>EAI89</t>
-  </si>
-  <si>
     <t>EAI90</t>
   </si>
   <si>
     <t>Codice Fiscale non trovato</t>
   </si>
   <si>
-    <t>EAV20</t>
-  </si>
-  <si>
-    <t>Soggetto già censito in Agenzia Entrate</t>
-  </si>
-  <si>
-    <t>EAV21</t>
-  </si>
-  <si>
-    <t>Dati anagrafici incongruenti con CF</t>
-  </si>
-  <si>
-    <t>EAV22</t>
-  </si>
-  <si>
-    <t>EAV23</t>
-  </si>
-  <si>
-    <t>EAV24</t>
-  </si>
-  <si>
-    <t>EAV30</t>
-  </si>
-  <si>
-    <t>CF presente ma dati anagrafici non congruenti</t>
-  </si>
-  <si>
-    <t>EAV31</t>
-  </si>
-  <si>
-    <t>EAV32</t>
-  </si>
-  <si>
-    <t>EAV33</t>
-  </si>
-  <si>
-    <t>EAV34</t>
-  </si>
-  <si>
-    <t>EAV40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Codice fiscale individuato in AT come collegato, il CF fornito è congruente </t>
-  </si>
-  <si>
-    <t>EAV41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Codice fiscale individuato in AT come collegato, il CF fornito NON è congruente </t>
-  </si>
-  <si>
-    <t>EAV42</t>
-  </si>
-  <si>
-    <t>EAV43</t>
-  </si>
-  <si>
-    <t>EAV44</t>
-  </si>
-  <si>
-    <t>EAV45</t>
-  </si>
-  <si>
-    <t>EAV46</t>
-  </si>
-  <si>
-    <t>EAV47</t>
-  </si>
-  <si>
-    <t>EAV50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Più codici fiscali individuati in AT </t>
-  </si>
-  <si>
-    <t>EAV51</t>
-  </si>
-  <si>
-    <t>EAV80</t>
-  </si>
-  <si>
-    <t>EAV81</t>
-  </si>
-  <si>
-    <t>EAV82</t>
-  </si>
-  <si>
-    <t>EAV83</t>
-  </si>
-  <si>
-    <t>EAV84</t>
-  </si>
-  <si>
-    <t>EAV85</t>
-  </si>
-  <si>
-    <t>EAV86</t>
-  </si>
-  <si>
-    <t>EAV87</t>
-  </si>
-  <si>
-    <t>EAV88</t>
-  </si>
-  <si>
-    <t>EAV91</t>
-  </si>
-  <si>
-    <t>Soggetto non presente in Agenzia Entrate</t>
-  </si>
-  <si>
-    <t>EAV92</t>
-  </si>
-  <si>
-    <t>"Richiesta incongruente - soggetto validato"</t>
-  </si>
-  <si>
-    <t>EE999</t>
-  </si>
-  <si>
-    <t>Servizio Agenzia Entrate momentaneamente non disponibile</t>
-  </si>
-  <si>
-    <t>Codice di errore</t>
+    <t>EAM12</t>
+  </si>
+  <si>
+    <t>Soggetto non individuato in AT -  Codice fiscale NON variato</t>
+  </si>
+  <si>
+    <t>EAM13</t>
+  </si>
+  <si>
+    <t>Soggetto individuato in AT - in lavorazione per risoluzione omocodia -  Codice fiscale NON variato</t>
+  </si>
+  <si>
+    <t>EAM15</t>
+  </si>
+  <si>
+    <t>Soggetto individuato in AT già in trattamento - operazione non effettuabile in data odierna</t>
+  </si>
+  <si>
+    <t>EAM21</t>
+  </si>
+  <si>
+    <t>Soggetto individuato in AT - ma errata indicazione del codice fiscale comune</t>
+  </si>
+  <si>
+    <t>EAM28</t>
+  </si>
+  <si>
+    <t>Altri soggetti individuati in AT dai NUOVI dati anagrafici, richiesta di variazione dati non effettuabile</t>
+  </si>
+  <si>
+    <t>EAR12</t>
+  </si>
+  <si>
+    <t>Soggetto non individuato in AT</t>
+  </si>
+  <si>
+    <t>EAM80</t>
+  </si>
+  <si>
+    <t>Tipo Operazione</t>
+  </si>
+  <si>
+    <t>Codice</t>
   </si>
   <si>
     <t>Descrizione</t>
+  </si>
+  <si>
+    <t>Attribuzione</t>
+  </si>
+  <si>
+    <t>Interrogazione</t>
+  </si>
+  <si>
+    <t>Allineamento</t>
+  </si>
+  <si>
+    <t>Variazione dati anagrafici</t>
+  </si>
+  <si>
+    <t>Rettifica dati AE</t>
+  </si>
+  <si>
+    <t>Validazione CF</t>
+  </si>
+  <si>
+    <t>AEE97</t>
+  </si>
+  <si>
+    <r>
+      <t>Operazione non effettuabile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>AEE96</t>
+  </si>
+  <si>
+    <t>Errore generico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operazione non effettuabile </t>
   </si>
 </sst>
 </file>
@@ -397,7 +448,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -577,8 +628,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -708,6 +765,108 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="3" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="3" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="3" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -753,13 +912,35 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1103,452 +1284,632 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B54"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="127.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="18.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="115.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C40" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="C41" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="C42" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C43" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="C44" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>77</v>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="16"/>
+      <c r="B46" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:C44"/>
+  <sortState ref="A1:C99">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <mergeCells count="7">
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A37:A44"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A25"/>
+    <mergeCell ref="A26:A36"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F0EB43895666D743BBE5EE80DE8AFF2D" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3898ec998cc85d3bcc261598fbbf3dc9">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all/>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{459858CE-1CF0-43AE-80A3-BAE6270A5C54}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{996A735F-7D21-4380-A9AC-9B1536CAB59D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73A1AA81-451B-48FB-AC01-F0DEE125330A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>